--- a/artfynd/A 36767-2020.xlsx
+++ b/artfynd/A 36767-2020.xlsx
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>641943.4500275437</v>
+        <v>641943</v>
       </c>
       <c r="R29" t="n">
-        <v>6635986.358554401</v>
+        <v>6635986</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
